--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/39_Isparta_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/39_Isparta_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59074CE-5A8B-490F-B12D-CF078C1B4A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F979A3AC-496A-4EE0-8B22-621D19BFA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{B4BD4DB3-397D-4476-9912-9204850FB754}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{534E259D-00CF-4D5F-A5AF-1B6119CBDFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{637B6916-520B-4FE3-B182-AE75DCED3A06}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E5582856-CE47-4D44-AF32-CCBEABCEB155}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B42A513C-32EA-4763-9053-95397EF1C29F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{DACE6BE8-10CA-4020-9773-F4B21AD582F2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{268427C4-8803-46CD-B16A-23681879DE83}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{6C5F2DFC-D047-41E0-A7F8-AA3C67883702}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DF7B74F3-7FE3-41B8-840D-871AC20F20B5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{67D33799-F9C4-4D8F-B602-06B2A8C4B9BD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3204F040-EC73-4E08-B141-0CB020BA0D0C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{82C9CFE8-0888-439A-AE5E-9712B4E1275A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{83074AD9-8822-4D94-BB2B-DC8E0E0CC01A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{58FE5313-D1D5-4A75-B52E-B2A4077D0C07}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{32268C2B-A5D4-4E38-9B8D-3BA4F9519E6D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{56D78B03-9716-4338-9479-5FE6A36B05C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7114214E-9E29-49B3-9A95-E508D6547E7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F06472-47AE-481C-BAF1-215A7B497876}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2566,18 +2566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FEAD769-5EEF-48AD-98D5-7F1032C57960}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00272992-8AD0-47ED-8E91-4429E6CA66D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB5B6420-5602-464E-8538-65915329E6D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0EAD128F-7C4B-45A8-B8FE-8345DD60D8B6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50D13A75-6BAE-4F4D-AEF5-09C248AC595B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{95B138BE-B9FF-4ABF-A1BE-2A72A2259483}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A30770E-C247-4907-AA8D-553B9DE67501}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BB7E688-3720-4D79-8741-A31342F4A7FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6515A68A-D643-4E9A-9930-22F4B023A602}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B67C4AF-16C0-48C6-813C-50AE6454D868}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE2F9E60-9EFF-4794-A70B-84AC11BE377A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C18DEFAF-B2AF-40BF-98B4-629D88970DC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37696DA1-9813-414A-9AAC-712799D9C587}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A411C115-9253-4CEC-934E-AABE46308386}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96C49784-5B85-4D17-9F26-79286CFA3792}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{55DAFF5C-4832-4930-80B4-3376C55F2422}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77FFF5E7-C50F-4D2D-A63A-B8F32D8ED598}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D770EF42-1B77-4682-B3DE-7D2DF0370340}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B78F341D-B9BC-4B93-B752-48954D7F8C87}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74F11E8D-4263-4C19-A588-7C7A50E69510}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DC8F60C-F67B-4812-8E62-29FD0C833394}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0F9DF66-5DF3-4B99-93F5-93F96C4669FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7302E2E9-5CD6-4DEB-913D-AFABB12F9FA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1D58D12-86AB-4D7C-AA52-90F5D9F3F828}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2590,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4DB069-E25B-4983-A2A7-43843F21A83D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0306819D-4143-4F76-8C81-D246BC078695}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3836,18 +3836,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76CBEDCB-2C85-46DD-B24B-C3F2D3B6ADAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F23FF02-349D-4427-910B-1107938363FB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5BD84378-597D-4942-9629-D2C7981CF433}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{940188AE-2F66-4BE9-A7BE-84B5BA055FFA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7615E263-EA9F-4DD9-AB0C-848F2CBE9394}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{32CB30C2-F5D1-491D-AF93-7BCC792FCB3E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2657A962-A46B-4A46-9BDC-878ECF0224E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A48E719-6EDD-471C-9AFC-CBA61516E6C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECB98A3F-2468-4443-8F1D-EA5F521EEF0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69DBAF9D-17D6-439B-9A21-E5788CA285E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83F3A8EB-AEEF-41FC-B94E-0DAB204F21D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{621775DB-7EC9-4601-A5E1-C20849FCE5A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF752625-DA6D-45C3-AA82-65FB5263600B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57E60B73-BC4D-417D-8C06-5F8321E32194}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC31D183-C26E-4BF2-BA55-D1C9AFC62F75}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9304A7C9-85DC-4E23-B05C-7ABEB3F4DCF3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FA0DA1F-BCA7-4326-A44D-8C27C1ACA6C9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B33DD211-076A-4C80-BB27-34416AA9CF5A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D00BA642-F765-4858-A29B-A71779AEBD90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86F6AA53-8DB6-4491-BAB7-2181BEEF129C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D268DB77-8CE4-4FC3-BC95-25CDC9628D9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C010A3F0-964B-4E5D-84A2-C955174C72F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{643B818E-3E30-483E-9C97-29A389653ECA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97820B49-B77D-4277-8AD6-020C3675B55E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3860,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C9000C-6783-4336-81E9-242B5B49F8B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F131B6A2-78B2-48C6-859F-6FD9131EBFDC}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5102,18 +5102,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{030567FE-130E-4D8A-A8E6-CBB040D16B18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{897475BD-B333-4AED-A339-53094D093E59}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D3FA41D-88ED-4F4E-97F8-A8B2CB8C0F04}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0943BA5C-3A14-4BE1-86FD-813E678598C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A8C8FDD-7FEA-425B-8C2A-97651072F5E1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64CA6891-2BFF-4D93-A988-78E5F753EEAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D404CFD-64D4-4978-8A7B-68ED02B57583}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFB33117-612E-4B49-B6F6-DC274DD5BC59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94AD3E5F-342E-4691-ABCF-9BA0387A7318}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA7D96DB-01A4-4602-A1EF-B02E5B72CDEA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1D655E8-ECC2-4323-88F7-F28C49B22D4E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDB4BC25-5A95-4DDB-83DA-0B27EFF16A27}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94EA1E57-1477-4558-AF9D-07BA44856D07}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE046126-3F84-40F3-838A-EDC6215DAEF5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2B5F57EC-E60D-4242-B128-35AB32794A66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E44336F8-2DE2-4507-9D66-803264BA1ACD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AD3D837-C934-4222-B478-0C2FDE453DA0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0789305F-E328-4006-866A-E3CC6DB45E5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC77BE54-0E97-4D84-82EC-0B249A5FF987}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D29CF597-E090-46DD-A534-F079C3E03F7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F693883B-2466-4DC7-9449-1CE13784089A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5800ADE7-B003-4EA8-A424-5234F9927704}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EDBCD3F-3F37-4666-ACBB-90E733A6A253}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7387A0AB-F6A2-408E-BA1F-655E1421C26B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5126,7 +5126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBCD165-4A84-4AA8-A109-3B2D6AC43E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258D1A17-6421-4F84-937D-AD29B03710DC}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6368,18 +6368,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FDEA7B2-FB79-4E35-A0C2-4FD4C1819DA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95CF6A8D-163F-4EC4-A48A-AA0C2C61519E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26EA1490-18F2-4345-857D-6146E8DD303C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D830385-3046-4DDC-A4BC-F3FE08CFC253}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B180903-DD2B-40C0-A06B-CCEC566C709F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2ED9594-6BD2-42B2-8115-ED427A7FC20C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22ED9C9C-2856-4A49-ADDA-D27A58B5E1EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48C134AD-6C87-482A-88ED-6CD8CDFB6856}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48F8FEBC-41A4-4344-A676-AB3FD09D051C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C90404A9-EA90-4F4F-92AF-BD2C5E686553}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{709148B7-E2A4-4A89-967A-58F9B4ACCE55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60E7E4FD-FF42-4CF7-982C-D6BD7FC1ECD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32880934-94A6-434B-84D9-EB5A25A47C10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8449D4A6-8CED-4344-9EF5-928896207D46}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11978C1D-C22A-4BFB-A8AE-66012DF17A1D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D0A0ED5-967E-46DB-92F4-3E48C13C1C93}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{319115B4-8EC8-4D4C-A5CA-3855ECB34BBE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6E46340F-0BB5-4899-8EC9-60CB5CD5E2B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27376B55-FD19-47BB-A41F-86185D758226}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E6CCF0A-3EAB-4B81-98F7-1D6FD5945833}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{901630B2-DA4D-40E1-B9EF-623FFDC5313C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A064004-8613-4BB7-BC52-DC45760989F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16C28855-AFD2-432B-A3AD-3BEBAB4C1AF8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD590942-8300-41EE-A37F-E78B4B01BE3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6392,7 +6392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E83AD49-35C1-42FA-8E51-A8BAFE27F8B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F578B-5854-46A0-9F84-E18146533F95}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7645,18 +7645,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C2606AE-DF02-49EC-9FFB-BC2068021D88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0D7C57A-A37F-4059-B75B-E541F665125B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1B0A7E9-B203-4C87-B319-27C511154340}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{70197854-5ECB-40B4-8987-F32822B8D650}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43E0A072-EA2F-43EB-AC31-534D0A9C8F82}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF04D81C-C431-4769-96BF-F07928017D02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1666219-5F91-4E52-BDB5-201F3707F453}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{491F404A-8638-429A-A036-8B06DE752D5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9860FD13-B5AD-4165-A777-DF6F3BE077D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8119ACE4-04EB-4ECA-A75C-F657628DCC4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5482EA4-B4C7-4F34-92F6-985458FD5E2D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68C1D00C-3DAA-4031-9503-C9EAEF37F175}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{226FB18A-6D90-49AE-8AC3-97FFFFBBECBA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F06FEEC6-85BE-4368-B493-7A6C48B39922}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B9E23265-AC95-4688-937F-13B0957A4CB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1018CA5B-0ACF-4F40-8C41-12856F18588D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74D0794F-767D-41E5-83AB-19D5204BA3B5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{653D5DC3-B3EC-4DF4-AD5B-7DB4318E11B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38458F93-9759-47EA-9101-67E864580F53}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F480FF8D-A621-4EB0-B336-67E8C416D64E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{160FF4CC-A73D-447B-8993-B7A4443506AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{551D98D0-3513-4B7F-BF93-FE376BBBB53E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE9C5437-7A2B-4759-8C3A-513E2B1E6517}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8EED117C-B76A-4226-B84A-FBF7F6A9B200}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7669,7 +7669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A7E8F-07E1-40E7-BF90-CD61F91117B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E83959-25BE-4129-82A2-E7E7AB8BBD4C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8922,18 +8922,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{211BE0AB-829C-4876-A7C5-F5CFA2F5518D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C33F7B1C-6983-47A7-B780-8E6897F0CC3E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C5A9F79-3F21-47FE-9977-848A8CA4ADFC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{302EEC3E-B080-4DA0-A2D6-77D38E80AE1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90AA9FB9-0AA5-472B-AF9B-F0F4F918BFE6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4E091BD5-BD38-403B-BD13-5AC83697AF0B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E4E03BD-B912-41A9-9EA6-71015EC59143}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC9BB91B-81C0-4B92-91E6-92A29566A0E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DA00964-22E9-4D53-9987-45F69513F150}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CD18907-DBB9-47B1-B38A-6961191150C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC5C30FE-51BA-4601-8F74-2187FE5564EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49C4E969-D5C9-4BF2-BF69-4B852905AC1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DCE3E38-14BC-4275-8A52-FD8C07A81977}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86F1DA5B-8B2A-4E69-9F26-641335A31C29}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40AA47F9-52DE-4046-AFD2-77622BC334DC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EDA021D4-FB15-41AF-B573-FAC60CF86B2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51FFCE3A-313F-42E8-9E28-DEF46F082F31}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BD556AA0-CFA0-4B1B-B0A1-85A3D3B32CC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7631252-E656-4F48-AA2D-9F486BC41C80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E08149E0-BE86-4D1D-9415-1847904CB7DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45BCE0E0-FFC2-4370-8F27-5E93876961B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7BEB9BE-9CD8-4212-BEC4-8A665C4A1A21}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F2D6DA6-DBE6-4EDE-BD98-C1AB6FD98582}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{094F43B3-5F86-47FF-9851-9AD9F2CE28EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8946,7 +8946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF05D0A-36DD-4889-9341-65EDF4F0E121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997B182E-F18E-4373-B8B7-69604C1A21BA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10199,18 +10199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30F41804-857D-411D-B71F-90CD7E1D18A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69BAC26B-975B-4D2E-92FE-984998BC9781}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{524A4808-00F4-4857-B936-7F7C6B330EB5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2B0D8BFF-0DA2-4D8D-BE3D-E08F99BAE729}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38808165-574E-4C11-9846-A1A2C834FD80}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{349047F7-841E-448E-8EDC-DCAF432F7598}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{199FC8A3-81F6-46FB-A50A-28E2E04378FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3291F82-E1AA-46A0-AF1F-1F55FAB688F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{617F0145-8106-415F-BEA4-0D49813D8C9F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3648D116-E4FE-475D-A9B3-130C687113D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{781125AC-E61F-461B-87CC-475F09A09232}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB82FE09-14E8-412E-BDC2-3B2511696DB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4879E6F1-92F1-4C0B-B129-804504DA6C8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24EA2EE6-3C3A-44A6-87CA-CDD201055289}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{131F83D8-F457-469C-B99E-D309A347BDDF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D8605DA-A95C-4985-872E-83609E8CC973}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E48EF645-B655-43C4-B91C-0FB89B230621}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{51CFFB5C-A78B-41C9-AA47-9A5F30595C0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7417C41D-3466-45EB-A4B4-BF2F461EDC13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C56CFAB9-4F27-4C12-97B4-E460303AEA12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B84D84A3-5A10-4769-81C6-6E07AA2AA6CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A023E51-5F27-4DA9-9604-98CC4CF9599C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E51B2A09-8D44-41DF-84F0-4BD87312D9BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA805F51-FE53-456A-B377-88C944F7A19B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10223,7 +10223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E96016-BDE2-4843-9148-82E94A9B4425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097AB3C5-4C95-4BFC-AC98-119A70DB52C9}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11473,18 +11473,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEA33C7D-BF89-4B02-8F52-798CE5B6B647}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B25A09D-1873-400C-B810-B16B88283A3F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{844762E8-B8DF-4466-A247-7FA9275454E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6BB1077-E368-4B67-91EB-2A3CAB2EFD5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AED80390-DE14-4AF7-A6E9-9C07DD54B87D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{010A64C6-C020-46C2-8DE6-621671BD088B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00385C83-0137-4B94-956C-FE55AB90C7FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{646E2773-A433-45AD-B19F-711DD036E053}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72A250DA-CB61-4ED2-A947-219A0DA19453}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA7D5852-0E67-4058-8434-51D5E5C2D470}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECA2DEC9-E9F9-4123-B7D7-5118D919BC49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C450D50-B4F2-4838-AC3D-D89EE6B1EC7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F5DA022-E0DB-40DB-9C0C-DCDEADEA362D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1387E173-25E5-45E6-BD19-049C90BBA6AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7702EC08-02D6-4733-BDB9-C78747E9DA6C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{108144AA-E255-43DC-8A9F-57A5F035CD7A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6C61A52-4EE5-4DC7-9BD6-988896DBFBB0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2562ACED-D7D1-433D-9B3A-A34E34C8BD1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA8F88A5-9032-4707-BCF3-15F9D52D4F57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E84041B-4056-494D-BD00-E941A1F8E884}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{296F3F0A-8331-4318-8E9F-CCB379AE00BB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1056C18F-46D8-4D8E-A031-FCC86ED0C718}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0DAB5D7-497C-4045-AE74-5B492E123A97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE6764D0-E388-4794-AC2A-39627004BE3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11497,7 +11497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4EE40-67BC-472E-A6DE-E68A033EFB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE20792-0E83-4EE8-8DAE-B55EA794CF7D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12747,18 +12747,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D3AB98B-448A-408E-A76D-3317051C3894}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D2F9A94-1836-4092-A624-603F521B55D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E28B94FF-AE19-4977-BFD0-1E60655DEB28}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F554F83-E336-4451-A8EE-9A19A67D7F43}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{974840EE-2093-43D5-8F30-21CC6707A097}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{618F41B5-CEC8-4DFD-AADE-98F0DB8FF670}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B33EF4C9-C036-45A9-9466-E983AA26AD21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17CA0A0D-D742-41B9-A272-8A44592AD773}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FE699F0-D385-4D97-A44B-BCF619280D39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDA87685-2FED-4E56-AF94-07E156C4D9B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7427E864-1525-4E5A-BB7D-4E114B60EAF0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8D03FB4-7AC1-443F-B0C1-3B7DA6BB275F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F117EFA4-3E26-49CC-990A-B4F1BCAA3932}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74CB73BF-F295-440F-A65F-34960C7C713E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1078E097-9A36-49C0-BF90-7BF4B1585C06}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{598D4F82-1889-4B4A-90C4-BAF33A5F3DF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8F9089D-0693-46A1-8FE0-EF6D8AB54B4E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC487911-2901-47A4-B6EB-5E495653B9D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B960670-EE49-4751-9D23-5E468839E7F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE0EF993-4F7C-4998-9D5E-F75E501B28EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05303B89-C285-427A-9A2F-8259860150F1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52383ED4-A3F5-4EF2-9FEB-050AC54AD141}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCA65FB7-B8DB-4BA7-93B4-55CC93F4A666}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9A829E5-D11C-44F1-B6A6-DC10018AC9E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12771,7 +12771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84FB922-D74C-4651-8480-D8DD42105A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF34C93E-A82D-45FF-8451-1874F1EEAF19}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14021,18 +14021,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90854906-A073-4B48-926C-23E2A325104A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B68F89D-A976-485C-B877-26A5CD1E8127}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D0DA9C8-E7D2-49AE-AC1C-DAC26705FF8D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EC71B4D-35F1-4C9F-A990-8DB01BD71653}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3005E9C2-4F30-43D9-B477-9D36EACE285A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F083B694-E9A0-4E9F-838C-825549330E90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3809D7C-0F46-48C0-B225-A123F5C36309}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82B72F02-DEFB-43E8-BD4C-BEE787B17D30}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CA46217-5912-40ED-A21B-05CEE371554E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{21D73466-D712-4B18-BD8F-1D4173A76054}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1E40294-48CC-4429-ABB5-9E0365ED8E00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D0D9418-002C-4136-8A71-2749341A72E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD434E8E-C125-4BA0-8212-9FC831777C29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{821F634B-D9E8-4D08-A318-9AC13B1E5D85}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D423B44-0BD1-410A-8B01-DE02D9DE3F44}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A0E5188F-DBEF-4E40-BE72-8C70C9C416E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD53D9A7-CA32-46FE-A9F1-7C55B2F077BB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{958A7528-B29C-41EA-BCD3-1D457BC1A4B8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A83F457E-4C38-4E8D-8AEC-EA952F3124A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A7EC82E-7D8C-4C91-8DEE-C2160F6BF655}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7A77DA1-6354-44DC-998D-D24FD4D17991}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67E6C480-9FC9-43DF-9022-C59AF5C87369}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0D4E506-F04F-4C75-915E-611A10AD4CA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59C8DE97-45E9-469A-8272-1AA6D4CE518A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14045,7 +14045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4024F52D-C58F-49B8-996E-452B2DFA84E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D36CE-EA66-4951-A7DB-C861B8F3AAFB}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15295,18 +15295,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CAE93CF-FDB9-4D58-AA5F-4334877821C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71E2118B-DB4C-4462-B261-8CC02187C34F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3837BE7B-63A6-4E40-97C3-EBAE417FC2C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{764FEC9A-C868-4038-8610-0F361D07D765}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78D22A01-C421-4362-B110-7A29FEF69BCD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E983E60C-4F8D-42E9-8973-F0CA2858E66E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E0D0511-9360-4C7E-B35C-F5A21B8BA8B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D897C672-292D-4B67-AFAA-FEBB3E7DFD14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C73C533-4A5A-4EE6-BADB-D6904BE9B5A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{33018605-6C17-43A8-9F33-915DDFDA8C25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{167EEBD8-88E3-4230-A11E-7F46B9D24524}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C8447BD-F125-4E5E-9BA0-6461F13DCE73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00D16E40-CCC3-4C2E-B3D0-FF5E556DF6B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBE74D2F-A894-4FE7-8F7B-E3E8FEE87BFD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CAECBCE9-72EC-4889-8781-81F57FC05989}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A59E1C55-3464-42EF-A35C-1B3B278CD2F0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C61567E-5E01-43D2-A7D1-36B782984530}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5108DF2B-AF33-4F84-8A7B-7AFC60E3A6B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F9BF8CF-D48B-4504-84FD-97AC00C20481}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CD6B09F-5D6B-4408-8987-DD60C0F01460}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC21F052-B3E2-4436-A521-11F5C63D0E6A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FF8AF7F-5A7A-40A3-9925-5CA4750940F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E2D66EB-CAE9-4923-BD2D-46228671AA52}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C6ED0CE-D7F3-4785-BB71-31FBA1A155A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15319,7 +15319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B92FD9C-94A1-45C6-89F3-2F477301D026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92EB930-32B5-4BA2-BFBD-E6D26242CFC2}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16565,18 +16565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8519B046-0CD6-4919-BDF1-18D5D5615F74}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A178388-454D-42CB-8527-E36786FF91FC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C95C3F7-BA98-4E65-A539-18FD6F9F7995}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC4AC68D-B34B-49C8-808C-BC2D0A8E437B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28340F3B-0ABE-49DA-A3B5-35D09D780320}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E2C3AA42-054D-4338-AD83-639633FA6D06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E69DE286-D4C4-4B8D-BE27-C562F9FFC7C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B98E6D41-6F09-48E8-BF3E-CBB18F7D069B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92FC36EA-A050-421E-A691-4232EC7D3B01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCCA4A2B-272C-4945-AE1A-0AE87102D38D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{734834CD-64DC-4646-B654-544A94CE7F6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{284665A3-42B8-4E2B-9498-440A698E1ED2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{631ECB52-F7B5-4288-89F6-C59D5F73BA5B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4950234F-19C5-4E7C-B14D-A31116AEB560}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6CD037C8-E723-41C2-B7A1-51A3169F905D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF287C90-7BE4-4DA3-8F46-C436F5210D54}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93705B80-268A-4DC5-B391-9A51352B7504}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD874BB1-C173-477C-A4E7-47DF4DD5AA3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43E34C85-48AB-4477-81AA-BE90F842CD32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41860703-8C39-4048-BC52-4B4DA234DF05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9656474-6086-42F7-8318-356F4A8AC5A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{920C1AA9-D0F8-409B-971E-85111540717D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2A5BFAB-1F38-4F80-99B5-C159DA9EBDA4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B7E242E-CA4D-4B9B-BFF4-3A087BC8ED4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
